--- a/inst/results/data_contam/emergentsea/percent_france_BIOTE_colors.xlsx
+++ b/inst/results/data_contam/emergentsea/percent_france_BIOTE_colors.xlsx
@@ -898,7 +898,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
     </row>
@@ -1453,12 +1453,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
